--- a/학습자료/순서배열/사건 순서_문제_구분통합.xlsx
+++ b/학습자료/순서배열/사건 순서_문제_구분통합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,39 +434,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Text 1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Text 1</t>
+          <t>Text 2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Text 2</t>
+          <t>Text 3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Text 3</t>
+          <t>오답가산점</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ㄱ. 사천 해전 
 ㄴ. 행주 대첩 
 ㄷ. 이치 권율</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 5월 - 사천 해전
 ㄷ. 1592년 7월 - 이치 권율
@@ -474,24 +481,29 @@
 </t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>ㄱ. 동래성 전투(송상현) 
 ㄴ. 행주 대첩 
 ㄷ. 이몽학의 난</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 4월 - 동래성 전투(송상현)
 ㄴ. 1593년 2월 - 행주 대첩
@@ -499,24 +511,29 @@
 </t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>ㄱ. 선조의 환도 
 ㄴ. 노량 해전 
 ㄷ. 이몽학의 난</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1593년 10월 - 선조의 환도
 ㄷ. 1596년 7월 - 이몽학의 난
@@ -524,24 +541,29 @@
 </t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ㄱ. 명량 전투 
 ㄴ. 선조의 환도 
 ㄷ. 진주 대첩</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1592년 10월 - 진주 대첩
 ㄴ. 1593년 10월 - 선조의 환도
@@ -549,24 +571,29 @@
 </t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>ㄱ. 평양성 함락 
 ㄴ. 훈련도감 설치 
 ㄷ. 진주 대첩</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 6월 - 평양성 함락
 ㄷ. 1592년 10월 - 진주 대첩
@@ -574,24 +601,29 @@
 </t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>ㄱ. 동래성 전투(송상현) 
 ㄴ. 한양 함락 
 ㄷ. 선조, 의주 도착</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 4월 - 동래성 전투(송상현)
 ㄴ. 1592년 5월 - 한양 함락
@@ -599,24 +631,29 @@
 </t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>ㄱ. 진주성 2차 혈전 
 ㄴ. 훈련도감 설치 
 ㄷ. 직산 전투</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1593년 6월 - 진주성 2차 혈전
 ㄴ. 1593년 8월 - 훈련도감 설치
@@ -624,24 +661,29 @@
 </t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>ㄱ. 진주 대첩 
 ㄴ. 행주 대첩 
 ㄷ. 칠천량 해전</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 10월 - 진주 대첩
 ㄴ. 1593년 2월 - 행주 대첩
@@ -649,24 +691,29 @@
 </t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>ㄱ. 진주성 2차 혈전 
 ㄴ. 평양성 탈환 
 ㄷ. 노량 해전</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1593년 1월 - 평양성 탈환
 ㄱ. 1593년 6월 - 진주성 2차 혈전
@@ -674,24 +721,29 @@
 </t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>ㄱ. 선조의 환도 
 ㄴ. 사천 해전 
 ㄷ. 이치 권율</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1592년 5월 - 사천 해전
 ㄷ. 1592년 7월 - 이치 권율
@@ -699,24 +751,29 @@
 </t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>ㄱ. 선조의 환도 
 ㄴ. 진주성 2차 혈전 
 ㄷ. 평양성 탈환</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1593년 1월 - 평양성 탈환
 ㄴ. 1593년 6월 - 진주성 2차 혈전
@@ -724,24 +781,29 @@
 </t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>ㄱ. 진주 대첩 
 ㄴ. 이몽학의 난 
 ㄷ. 선조, 의주 도착</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1592년 6월 - 선조, 의주 도착
 ㄱ. 1592년 10월 - 진주 대첩
@@ -749,24 +811,29 @@
 </t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>ㄱ. 명량 전투 
 ㄴ. 진주성 2차 혈전 
 ㄷ. 이몽학의 난</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1593년 6월 - 진주성 2차 혈전
 ㄷ. 1596년 7월 - 이몽학의 난
@@ -774,24 +841,29 @@
 </t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>ㄱ. 진주성 2차 혈전 
 ㄴ. 진주 대첩 
 ㄷ. 선조, 의주 도착</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1592년 6월 - 선조, 의주 도착
 ㄴ. 1592년 10월 - 진주 대첩
@@ -799,24 +871,29 @@
 </t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>ㄱ. 이치 권율 
 ㄴ. 왜군의 침략 
 ㄷ. 진주성 2차 혈전</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1592년 4월 - 왜군의 침략
 ㄱ. 1592년 7월 - 이치 권율
@@ -824,24 +901,29 @@
 </t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>ㄱ. 훈련도감 설치 
 ㄴ. 직산 전투 
 ㄷ. 진주성 2차 혈전</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1593년 6월 - 진주성 2차 혈전
 ㄱ. 1593년 8월 - 훈련도감 설치
@@ -849,24 +931,29 @@
 </t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>ㄱ. 상주 전투(이일) 
 ㄴ. 한산도 대첩 
 ㄷ. 진주 대첩</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 4월 - 상주 전투(이일)
 ㄴ. 1592년 7월 - 한산도 대첩
@@ -874,24 +961,29 @@
 </t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>ㄱ. 진주 대첩 
 ㄴ. 직산 전투 
 ㄷ. 충주 탄금대 전투(신립)</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1592년 4월 - 충주 탄금대 전투(신립)
 ㄱ. 1592년 10월 - 진주 대첩
@@ -899,24 +991,29 @@
 </t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>ㄱ. 왜군의 침략 
 ㄴ. 행주 대첩 
 ㄷ. 진주 대첩</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1592년 4월 - 왜군의 침략
 ㄷ. 1592년 10월 - 진주 대첩
@@ -924,24 +1021,29 @@
 </t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>ㄱ. 진주성 2차 혈전 
 ㄴ. 벡제관 전투 
 ㄷ. 훈련도감 설치</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1593년 1월 - 벡제관 전투
 ㄱ. 1593년 6월 - 진주성 2차 혈전
@@ -949,24 +1051,29 @@
 </t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>ㄱ. 정중부 집권 
 ㄴ. 이연년 형제의 난 
 ㄷ. 망이, 망소이의 난</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1174 - 정중부 집권
 ㄷ. 1176 - 망이, 망소이의 난
@@ -974,24 +1081,29 @@
 </t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>ㄱ. 이의민 집권 
 ㄴ. 망이, 망소이의 난 
 ㄷ. 만적의 난</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1176 - 망이, 망소이의 난
 ㄱ. 1183 - 이의민 집권
@@ -999,24 +1111,29 @@
 </t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>ㄱ. 최충헌 집권 
 ㄴ. 김보당의 난 
 ㄷ. 조위총의 난</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1173 - 김보당의 난
 ㄷ. 1174 - 조위총의 난
@@ -1024,24 +1141,29 @@
 </t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>ㄱ. 전주 관노의 난 
 ㄴ. 경대승 집권 
 ㄷ. 광명, 계발의 난</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1179 - 경대승 집권
 ㄱ. 1182 - 전주 관노의 난
@@ -1049,24 +1171,28 @@
 </t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>4</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ㄱ. 전주 관노의 난 
+ㄴ. 이연년</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ㄱ. 전주 관노의 난 
-ㄴ. 이연년 형제의 난 
-ㄷ. 경대승 집권</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1179 - 경대승 집권
 ㄱ. 1182 - 전주 관노의 난
@@ -1074,24 +1200,29 @@
 </t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>ㄱ. 경대승 집권 
 ㄴ. 망이, 망소이의 난 
 ㄷ. 교종 계통 승려의 난</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1174 - 교종 계통 승려의 난
 ㄴ. 1176 - 망이, 망소이의 난
@@ -1099,24 +1230,29 @@
 </t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>ㄱ. 최우 집권 
 ㄴ. 이연년 형제의 난 
 ㄷ. 김사미, 효심의 난</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1193 - 김사미, 효심의 난
 ㄱ. 1219 - 최우 집권
@@ -1124,24 +1260,29 @@
 </t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>ㄱ. 이의민 집권 
 ㄴ. 만적의 난 
 ㄷ. 최충헌 집권</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1183 - 이의민 집권
 ㄷ. 1196 - 최충헌 집권
@@ -1149,24 +1290,29 @@
 </t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>ㄱ. 전주 관노의 난 
 ㄴ. 이연년 형제의 난 
 ㄷ. 최충헌 집권</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1182 - 전주 관노의 난
 ㄷ. 1196 - 최충헌 집권
@@ -1174,24 +1320,29 @@
 </t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>ㄱ. 교종 계통 승려의 난 
 ㄴ. 최광수의 난 
 ㄷ. 김사미, 효심의 난</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1174 - 교종 계통 승려의 난
 ㄷ. 1193 - 김사미, 효심의 난
@@ -1199,24 +1350,29 @@
 </t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>ㄱ. 전주 관노의 난 
 ㄴ. 최우 집권 
 ㄷ. 만적의 난</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1182 - 전주 관노의 난
 ㄷ. 1198 - 만적의 난
@@ -1224,24 +1380,29 @@
 </t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>ㄱ. 이비, 패좌의 난 
 ㄴ. 최충헌 집권 
 ㄷ. 김사미, 효심의 난</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1193 - 김사미, 효심의 난
 ㄴ. 1196 - 최충헌 집권
@@ -1249,24 +1410,29 @@
 </t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>ㄱ. 이의민 집권 
 ㄴ. 김보당의 난 
 ㄷ. 망이, 망소이의 난</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1173 - 김보당의 난
 ㄷ. 1176 - 망이, 망소이의 난
@@ -1274,24 +1440,29 @@
 </t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>ㄱ. 광명, 계발의 난 
 ㄴ. 김사미, 효심의 난 
 ㄷ. 전주 관노의 난</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1182 - 전주 관노의 난
 ㄴ. 1193 - 김사미, 효심의 난
@@ -1299,24 +1470,29 @@
 </t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>ㄱ. 이비, 패좌의 난 
 ㄴ. 전주 관노의 난 
 ㄷ. 최충헌 집권</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1182 - 전주 관노의 난
 ㄷ. 1196 - 최충헌 집권
@@ -1324,24 +1500,29 @@
 </t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>ㄱ. 만적의 난 
 ㄴ. 김보당의 난 
 ㄷ. 전주 관노의 난</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1173 - 김보당의 난
 ㄷ. 1182 - 전주 관노의 난
@@ -1349,24 +1530,29 @@
 </t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>ㄱ. 김사미, 효심의 난 
 ㄴ. 교종 계통 승려의 난 
 ㄷ. 이의민 집권</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1174 - 교종 계통 승려의 난
 ㄷ. 1183 - 이의민 집권
@@ -1374,24 +1560,29 @@
 </t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>ㄱ. 이비, 패좌의 난 
 ㄴ. 최충헌 집권 
 ㄷ. 전주 관노의 난</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1182 - 전주 관노의 난
 ㄴ. 1196 - 최충헌 집권
@@ -1399,24 +1590,29 @@
 </t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>ㄱ. 망이, 망소이의 난 
 ㄴ. 김사미, 효심의 난 
 ㄷ. 최충헌 집권</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 1176 - 망이, 망소이의 난
 ㄴ. 1193 - 김사미, 효심의 난
@@ -1424,24 +1620,29 @@
 </t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>ㄱ. 최광수의 난 
 ㄴ. 정중부 집권 
 ㄷ. 최우 집권</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1174 - 정중부 집권
 ㄱ. 1217 - 최광수의 난
@@ -1449,24 +1650,29 @@
 </t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>ㄱ. 예부 
 ㄴ. 영객부 
 ㄷ. 위화부</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 581 : 진평왕 - 위화부
 ㄱ. 586 : 진평왕 - 예부
@@ -1474,24 +1680,29 @@
 </t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>ㄱ. 예부 
 ㄴ. 위화부 
 ㄷ. 품주</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 581 : 진평왕 - 위화부
 ㄱ. 586 : 진평왕 - 예부
@@ -1499,24 +1710,29 @@
 </t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>ㄱ. 공장부 
 ㄴ. 예작부 
 ㄷ. 영객부</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 591 : 진평왕 - 영객부
 ㄱ. 682 : 신문왕 - 공장부
@@ -1524,24 +1740,29 @@
 </t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>ㄱ. 조부 
 ㄴ. 우이방부 
 ㄷ. 영객부</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 584 : 진평왕 - 조부
 ㄷ. 591 : 진평왕 - 영객부
@@ -1549,24 +1770,29 @@
 </t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>ㄱ. 조부 
 ㄴ. 예부 
 ㄷ. 병부</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 516 : 법흥왕 - 병부
 ㄱ. 584 : 진평왕 - 조부
@@ -1574,24 +1800,29 @@
 </t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>ㄱ. 좌이방부 
 ㄴ. 조부 
 ㄷ. 병부</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 516 : 법흥왕 - 병부
 ㄴ. 584 : 진평왕 - 조부
@@ -1599,24 +1830,29 @@
 </t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>ㄱ. 승부 
 ㄴ. 선부 
 ㄷ. 위화부</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 581 : 진평왕 - 위화부
 ㄱ. 584 : 진평왕 - 승부
@@ -1624,24 +1860,29 @@
 </t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>ㄱ. 영객부 
 ㄴ. 위화부 
 ㄷ. 승부</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 581 : 진평왕 - 위화부
 ㄷ. 584 : 진평왕 - 승부
@@ -1649,24 +1890,29 @@
 </t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>ㄱ. 승부 
 ㄴ. 선부 
 ㄷ. 예작부</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 584 : 진평왕 - 승부
 ㄴ. 678 : 문무왕 - 선부
@@ -1674,24 +1920,29 @@
 </t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>ㄱ. 품주 
 ㄴ. 우이방부 
 ㄷ. 사정부</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 651 : 진덕 여왕 - 품주
 ㄷ. 659 : 무열왕 - 사정부
@@ -1699,24 +1950,29 @@
 </t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>ㄱ. 위화부 
 ㄴ. 공장부 
 ㄷ. 조부</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 581 : 진평왕 - 위화부
 ㄷ. 584 : 진평왕 - 조부
@@ -1724,24 +1980,29 @@
 </t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>ㄱ. 공장부 
 ㄴ. 사정부 
 ㄷ. 우이방부</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 659 : 무열왕 - 사정부
 ㄷ. 667 : 문무왕 - 우이방부
@@ -1749,24 +2010,29 @@
 </t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>ㄱ. 예부 
 ㄴ. 집사부 
 ㄷ. 위화부</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 581 : 진평왕 - 위화부
 ㄱ. 586 : 진평왕 - 예부
@@ -1774,24 +2040,29 @@
 </t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>ㄱ. 승부 
 ㄴ. 영객부 
 ㄷ. 창부</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 584 : 진평왕 - 승부
 ㄴ. 591 : 진평왕 - 영객부
@@ -1799,24 +2070,29 @@
 </t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>ㄱ. 영객부 
 ㄴ. 예작부 
 ㄷ. 공장부</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 591 : 진평왕 - 영객부
 ㄷ. 682 : 신문왕 - 공장부
@@ -1824,24 +2100,29 @@
 </t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>ㄱ. 조부 
 ㄴ. 위화부 
 ㄷ. 우이방부</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 581 : 진평왕 - 위화부
 ㄱ. 584 : 진평왕 - 조부
@@ -1849,24 +2130,29 @@
 </t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>ㄱ. 우이방부 
 ㄴ. 예부 
 ㄷ. 창부</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 586 : 진평왕 - 예부
 ㄷ. 651 : 진덕 여왕 - 창부
@@ -1874,24 +2160,29 @@
 </t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>ㄱ. 공장부 
 ㄴ. 영객부 
 ㄷ. 위화부</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 581 : 진평왕 - 위화부
 ㄴ. 591 : 진평왕 - 영객부
@@ -1899,24 +2190,29 @@
 </t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>ㄱ. 예작부 
 ㄴ. 위화부 
 ㄷ. 예부</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 581 : 진평왕 - 위화부
 ㄷ. 586 : 진평왕 - 예부
@@ -1924,24 +2220,29 @@
 </t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>ㄱ. 창부 
 ㄴ. 공장부 
 ㄷ. 사정부</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 651 : 진덕 여왕 - 창부
 ㄷ. 659 : 무열왕 - 사정부
@@ -1949,24 +2250,29 @@
 </t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>ㄱ. 제가 회의 
 ㄴ. 정당성 
 ㄷ. 도당</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 삼국 시대 - 제가 회의
 ㄴ. 발해 - 정당성
@@ -1974,24 +2280,29 @@
 </t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>ㄱ. 제가 회의 
 ㄴ. 도당 
 ㄷ. 도병마사</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 삼국 시대 - 제가 회의
 ㄷ. 고려 전기 - 도병마사
@@ -1999,24 +2310,29 @@
 </t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>ㄱ. 도당 
 ㄴ. 정당성 
 ㄷ. 제가 회의</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 제가 회의
 ㄴ. 발해 - 정당성
@@ -2024,24 +2340,29 @@
 </t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>ㄱ. 도병마사 
 ㄴ. 비변사 
 ㄷ. 화백 회의</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 화백 회의
 ㄱ. 고려 전기 - 도병마사
@@ -2049,24 +2370,29 @@
 </t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>ㄱ. 정당성 
 ㄴ. 비변사 
 ㄷ. 화백 회의</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 화백 회의
 ㄱ. 발해 - 정당성
@@ -2074,24 +2400,29 @@
 </t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>ㄱ. 비변사 
 ㄴ. 정당성 
 ㄷ. 제가 회의</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 제가 회의
 ㄴ. 발해 - 정당성
@@ -2099,24 +2430,29 @@
 </t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>ㄱ. 정당성 
 ㄴ. 도병마사 
 ㄷ. 도평의사사</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 발해 - 정당성
 ㄴ. 고려 전기 - 도병마사
@@ -2124,24 +2460,29 @@
 </t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>ㄱ. 제가 회의 
 ㄴ. 비변사 
 ㄷ. 도평의사사</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 삼국 시대 - 제가 회의
 ㄷ. 고려 후기 - 도평의사사
@@ -2149,24 +2490,29 @@
 </t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>ㄱ. 비변사 
 ㄴ. 제가 회의 
 ㄷ. 정당성</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 삼국 시대 - 제가 회의
 ㄷ. 발해 - 정당성
@@ -2174,24 +2520,29 @@
 </t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>ㄱ. 의정부 
 ㄴ. 도평의사사 
 ㄷ. 비변사</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 고려 후기 - 도평의사사
 ㄱ. 조선 전기 - 의정부
@@ -2199,24 +2550,29 @@
 </t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>ㄱ. 도병마사 
 ㄴ. 화백 회의 
 ㄷ. 정당성</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 삼국 시대 - 화백 회의
 ㄷ. 발해 - 정당성
@@ -2224,24 +2580,29 @@
 </t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>ㄱ. 비변사 
 ㄴ. 정당성 
 ㄷ. 정사암 회의</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 정사암 회의
 ㄴ. 발해 - 정당성
@@ -2249,24 +2610,29 @@
 </t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>ㄱ. 의정부 
 ㄴ. 정사암 회의 
 ㄷ. 비변사</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 삼국 시대 - 정사암 회의
 ㄱ. 조선 전기 - 의정부
@@ -2274,24 +2640,29 @@
 </t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>ㄱ. 의정부 
 ㄴ. 도당 
 ㄷ. 도병마사</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 고려 전기 - 도병마사
 ㄴ. 고려 후기 - 도당
@@ -2299,24 +2670,29 @@
 </t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>ㄱ. 정당성 
 ㄴ. 도병마사 
 ㄷ. 제가 회의</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 삼국 시대 - 제가 회의
 ㄱ. 발해 - 정당성
@@ -2324,24 +2700,29 @@
 </t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>ㄱ. 도평의사사 
 ㄴ. 비변사 
 ㄷ. 도병마사</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 고려 전기 - 도병마사
 ㄱ. 고려 후기 - 도평의사사
@@ -2349,24 +2730,29 @@
 </t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>ㄱ. 의정부 
 ㄴ. 비변사 
 ㄷ. 도평의사사</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 고려 후기 - 도평의사사
 ㄱ. 조선 전기 - 의정부
@@ -2374,24 +2760,29 @@
 </t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>ㄱ. 의정부 
 ㄴ. 도병마사 
 ㄷ. 비변사</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 고려 전기 - 도병마사
 ㄱ. 조선 전기 - 의정부
@@ -2399,24 +2790,29 @@
 </t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>ㄱ. 정당성 
 ㄴ. 도병마사 
 ㄷ. 의정부</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 발해 - 정당성
 ㄴ. 고려 전기 - 도병마사
@@ -2424,49 +2820,29 @@
 </t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ㄱ. 정당성 
-ㄴ. 도병마사 
-ㄷ. 제가 회의</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄷ. 삼국 시대 - 제가 회의
-ㄱ. 발해 - 정당성
-ㄴ. 고려 전기 - 도병마사
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>ㄱ. 여수 전쟁 
 ㄴ. 여당 전쟁 
 ㄷ. 삼국 통일</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
 ㄴ. 645 - 여당 전쟁
@@ -2474,24 +2850,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>ㄱ. 여당 전쟁 
 ㄴ. 여수 전쟁 
 ㄷ. 백제 멸망</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 612 - 여수 전쟁
 ㄱ. 645 - 여당 전쟁
@@ -2499,24 +2880,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="D82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 멸망 
 ㄴ. 백제 멸망 
 ㄷ. 여수 전쟁</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 612 - 여수 전쟁
 ㄴ. 660 - 백제 멸망
@@ -2524,24 +2910,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 멸망 
 ㄴ. 나당 전쟁 
 ㄷ. 백제 멸망</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 660 - 백제 멸망
 ㄱ. 668 - 고구려 멸망
@@ -2549,24 +2940,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>ㄱ. 삼국 통일 
 ㄴ. 나당 전쟁 
 ㄷ. 여수 전쟁</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 612 - 여수 전쟁
 ㄴ. 670 - 나당 전쟁
@@ -2574,24 +2970,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>ㄱ. 여당 전쟁 
 ㄴ. 여수 전쟁 
 ㄷ. 나당 전쟁</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 612 - 여수 전쟁
 ㄱ. 645 - 여당 전쟁
@@ -2599,24 +3000,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>ㄱ. 백제 멸망 
 ㄴ. 나당 연합군 결성 
 ㄷ. 나당 전쟁</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 648 - 나당 연합군 결성
 ㄱ. 660 - 백제 멸망
@@ -2624,24 +3030,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>ㄱ. 나당 연합군 결성 
 ㄴ. 백제 멸망 
 ㄷ. 여당 전쟁</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 645 - 여당 전쟁
 ㄱ. 648 - 나당 연합군 결성
@@ -2649,49 +3060,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ㄱ. 여수 전쟁 
-ㄴ. 여당 전쟁 
-ㄷ. 삼국 통일</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
-ㄴ. 645 - 여당 전쟁
-ㄷ. 676 - 삼국 통일
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>ㄱ. 삼국 통일 
 ㄴ. 나당 연합군 결성 
 ㄷ. 여수 전쟁</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 612 - 여수 전쟁
 ㄴ. 648 - 나당 연합군 결성
@@ -2699,24 +3090,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>ㄱ. 나당 연합군 결성 
 ㄴ. 삼국 통일 
 ㄷ. 백제 멸망</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 648 - 나당 연합군 결성
 ㄷ. 660 - 백제 멸망
@@ -2724,24 +3120,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="D90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 멸망 
 ㄴ. 백제 멸망 
 ㄷ. 나당 전쟁</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 660 - 백제 멸망
 ㄱ. 668 - 고구려 멸망
@@ -2749,24 +3150,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>ㄱ. 나당 연합군 결성 
 ㄴ. 여수 전쟁 
 ㄷ. 고구려 멸망</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 612 - 여수 전쟁
 ㄱ. 648 - 나당 연합군 결성
@@ -2774,24 +3180,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>ㄱ. 백제 멸망 
 ㄴ. 여당 전쟁 
 ㄷ. 나당 전쟁</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 645 - 여당 전쟁
 ㄱ. 660 - 백제 멸망
@@ -2799,24 +3210,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>ㄱ. 나당 연합군 결성 
 ㄴ. 백제 멸망 
 ㄷ. 삼국 통일</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 648 - 나당 연합군 결성
 ㄴ. 660 - 백제 멸망
@@ -2824,24 +3240,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>ㄱ. 여수 전쟁 
 ㄴ. 여당 전쟁 
 ㄷ. 나당 연합군 결성</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
 ㄴ. 645 - 여당 전쟁
@@ -2849,24 +3270,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>ㄱ. 여수 전쟁 
 ㄴ. 고구려 멸망 
 ㄷ. 나당 전쟁</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
 ㄴ. 668 - 고구려 멸망
@@ -2874,24 +3300,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>ㄱ. 백제 멸망 
 ㄴ. 삼국 통일 
 ㄷ. 나당 전</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 660 - 백제 멸망
 ㄷ. 670 - 나당 전쟁
@@ -2899,24 +3330,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>ㄱ. 여수 전쟁 
 ㄴ. 나당 연합군 결성 
 ㄷ. 여당 전쟁</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
 ㄷ. 645 - 여당 전쟁
@@ -2924,24 +3360,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>ㄱ. 여수 전쟁 
 ㄴ. 나당 전쟁 
 ㄷ. 백제 멸망</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 612 - 여수 전쟁
 ㄷ. 660 - 백제 멸망
@@ -2949,24 +3390,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="D99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>ㄱ. 대립 
 ㄴ. 군적 수포제 
 ㄷ. 보법</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 세조 - 보법
 ㄱ. 15세기 중엽 - 대립
@@ -2974,24 +3420,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="D100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>ㄱ. 균역법 실시 
 ㄴ. 대립 
 ㄷ. 방군 수포</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 15세기 중엽 - 대립
 ㄷ. 16세기 초 - 방군 수포
@@ -2999,24 +3450,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>ㄱ. 호포제 
 ㄴ. 군적 수포제 
 ㄷ. 대립</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 15세기 중엽 - 대립
 ㄴ. 16세기 중엽 - 군적 수포제
@@ -3024,24 +3480,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>ㄱ. 군적 수포제 
 ㄴ. 방군 수포 
 ㄷ. 대립</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 15세기 중엽 - 대립
 ㄴ. 16세기 초 - 방군 수포
@@ -3049,24 +3510,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>ㄱ. 균역법 실시 
 ㄴ. 군적 수포제 
 ㄷ. 호포제</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 16세기 중엽 - 군적 수포제
 ㄱ. 영조 26년 1750 - 균역법 실시
@@ -3074,24 +3540,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="D104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>ㄱ. 보법 
 ㄴ. 군적 수포제 
 ㄷ. 대립</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 세조 - 보법
 ㄷ. 15세기 중엽 - 대립
@@ -3099,24 +3570,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>ㄱ. 군적 수포제 
 ㄴ. 호포제 
 ㄷ. 보법</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 세조 - 보법
 ㄱ. 16세기 중엽 - 군적 수포제
@@ -3124,24 +3600,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="D106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>ㄱ. 호포제 
 ㄴ. 방군 수포 
 ㄷ. 군적 수포제</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 16세기 초 - 방군 수포
 ㄷ. 16세기 중엽 - 군적 수포제
@@ -3149,24 +3630,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>ㄱ. 방군 수포 
 ㄴ. 보법 
 ㄷ. 균역법 실시</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 세조 - 보법
 ㄱ. 16세기 초 - 방군 수포
@@ -3174,24 +3660,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>ㄱ. 호포제 
 ㄴ. 군적 수포제 
 ㄷ. 보법</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 세조 - 보법
 ㄴ. 16세기 중엽 - 군적 수포제
@@ -3199,24 +3690,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>ㄱ. 보법 
 ㄴ. 방군 수포 
 ㄷ. 대립</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 세조 - 보법
 ㄷ. 15세기 중엽 - 대립
@@ -3224,24 +3720,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>ㄱ. 군적 수포제 
 ㄴ. 방군 수포 
 ㄷ. 보법</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 세조 - 보법
 ㄴ. 16세기 초 - 방군 수포
@@ -3249,24 +3750,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>ㄱ. 보법 
 ㄴ. 대립 
 ㄷ. 균역법 실시</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 세조 - 보법
 ㄴ. 15세기 중엽 - 대립
@@ -3274,24 +3780,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>ㄱ. 호포제 
 ㄴ. 보법 
 ㄷ. 군적 수포제</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 세조 - 보법
 ㄷ. 16세기 중엽 - 군적 수포제
@@ -3299,24 +3810,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="D113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>ㄱ. 균역법 실시 
 ㄴ. 호포제 
 ㄷ. 군적 수포제</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 16세기 중엽 - 군적 수포제
 ㄱ. 영조 26년 1750 - 균역법 실시
@@ -3324,24 +3840,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>ㄱ. 균역법 실시 
 ㄴ. 방군 수포 
 ㄷ. 군적 수포제</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 16세기 초 - 방군 수포
 ㄷ. 16세기 중엽 - 군적 수포제
@@ -3349,48 +3870,58 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="D115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>ㄱ. 군적 수포제 
 ㄴ. 보법 
 ㄷ. 방군 수포</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>ㄴ. 세조 - 보법
 ㄷ. 16세기 초 - 방군 수포
 ㄱ. 16세기 중엽 - 군적</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>ㄱ. 보법 
 ㄴ. 호포제 
 ㄷ. 대립</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 세조 - 보법
 ㄷ. 15세기 중엽 - 대립
@@ -3398,24 +3929,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>ㄱ. 대립 
 ㄴ. 군적 수포제 
 ㄷ. 방군 수포</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 15세기 중엽 - 대립
 ㄷ. 16세기 초 - 방군 수포
@@ -3423,24 +3959,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>ㄱ. 호포제 
 ㄴ. 대립 
 ㄷ. 방군 수포</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 15세기 중엽 - 대립
 ㄷ. 16세기 초 - 방군 수포
@@ -3448,24 +3989,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" t="inlineStr">
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>ㄱ. 나제동맹(비유/눌지) 
 ㄴ. 성왕 관산성 전투 전사 
 ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 433 - 나제동맹(비유/눌지)
 ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
@@ -3473,24 +4019,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="D120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>ㄱ. 결혼동맹(동성/소지) 
 ㄴ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄷ. 성왕 관산성 전투 전사</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 455 - 장수왕 침공, 눌지왕 구원병 파견
 ㄱ. 493 - 결혼동맹(동성/소지)
@@ -3498,24 +4049,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>ㄱ. 결혼동맹(동성/소지) 
 ㄴ. 나제동맹(비유/눌지) 
 ㄷ. 성왕 관산성 전투 전사</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 433 - 나제동맹(비유/눌지)
 ㄱ. 493 - 결혼동맹(동성/소지)
@@ -3523,24 +4079,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="D122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>ㄱ. 나제동맹 결렬(한강 이남) 
 ㄴ. 결혼동맹(동성/소지) 
 ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
 ㄴ. 493 - 결혼동맹(동성/소지)
@@ -3548,24 +4109,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄴ. 결혼동맹(동성/소지) 
 ㄷ. 나제동맹 결렬(한강 이남)</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
 ㄴ. 493 - 결혼동맹(동성/소지)
@@ -3573,24 +4139,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>ㄱ. 성왕 관산성 전투 전사 
 ㄴ. 나제동맹 결렬(한강 이남) 
 ㄷ. 결혼동맹(동성/소지)</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 493 - 결혼동맹(동성/소지)
 ㄴ. 553 - 나제동맹 결렬(한강 이남)
@@ -3598,24 +4169,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄴ. 성왕 관산성 전투 전사 
 ㄷ. 나제동맹(비유/눌지)</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 433 - 나제동맹(비유/눌지)
 ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
@@ -3623,24 +4199,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="D126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>ㄱ. 결혼동맹(동성/소지) 
 ㄴ. 나제동맹(비유/눌지) 
 ㄷ. 나제동맹 결렬(한강 이남)</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 433 - 나제동맹(비유/눌지)
 ㄱ. 493 - 결혼동맹(동성/소지)
@@ -3648,49 +4229,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ㄱ. 나제동맹 결렬(한강 이남) 
-ㄴ. 결혼동맹(동성/소지) 
-ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
-ㄴ. 493 - 결혼동맹(동성/소지)
-ㄱ. 553 - 나제동맹 결렬(한강 이남)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="D127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>ㄱ. 나제동맹 결렬(한강 이남) 
 ㄴ. 성왕 관산성 전투 전사 
 ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
 ㄱ. 553 - 나제동맹 결렬(한강 이남)
@@ -3698,24 +4259,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>ㄱ. 성왕 관산성 전투 전사 
 ㄴ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄷ. 나제동맹(비유/눌지)</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 433 - 나제동맹(비유/눌지)
 ㄴ. 455 - 장수왕 침공, 눌지왕 구원병 파견
@@ -3723,24 +4289,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄴ. 나제동맹 결렬(한강 이남) 
 ㄷ. 결혼동맹(동성/소지)</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
 ㄷ. 493 - 결혼동맹(동성/소지)
@@ -3748,24 +4319,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B134" t="inlineStr">
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>ㄱ. 나제동맹(비유/눌지) 
 ㄴ. 나제동맹 결렬(한강 이남) 
 ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 433 - 나제동맹(비유/눌지)
 ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
@@ -3773,124 +4349,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
-ㄴ. 성왕 관산성 전투 전사 
-ㄷ. 나제동맹(비유/눌지)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>ㄷㄱㄴ</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄷ. 433 - 나제동맹(비유/눌지)
-ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
-ㄴ. 554 - 성왕 관산성 전투 전사
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ㄱ. 결혼동맹(동성/소지) 
-ㄴ. 장수왕 침공, 눌지왕 구원병 파견 
-ㄷ. 성왕 관산성 전투 전사</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄴ. 455 - 장수왕 침공, 눌지왕 구원병 파견
-ㄱ. 493 - 결혼동맹(동성/소지)
-ㄷ. 554 - 성왕 관산성 전투 전사
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ㄱ. 결혼동맹(동성/소지) 
-ㄴ. 나제동맹(비유/눌지) 
-ㄷ. 성왕 관산성 전투 전사</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄴ. 433 - 나제동맹(비유/눌지)
-ㄱ. 493 - 결혼동맹(동성/소지)
-ㄷ. 554 - 성왕 관산성 전투 전사
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
-ㄴ. 결혼동맹(동성/소지) 
-ㄷ. 나제동맹 결렬(한강 이남)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
-ㄴ. 493 - 결혼동맹(동성/소지)
-ㄷ. 553 - 나제동맹 결렬(한강 이남)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B139" t="inlineStr">
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>ㄱ. 결혼동맹(동성/소지) 
 ㄴ. 성왕 관산성 전투 전사 
 ㄷ. 나제동맹 결렬(한강 이남)</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 493 - 결혼동맹(동성/소지)
 ㄷ. 553 - 나제동맹 결렬(한강 이남)
@@ -3898,24 +4379,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B140" t="inlineStr">
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>ㄱ. 장수왕 침공, 눌지왕 구원병 파견 
 ㄴ. 나제동맹(비유/눌지) 
 ㄷ. 나제동맹 결렬(한강 이남)</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 433 - 나제동맹(비유/눌지)
 ㄱ. 455 - 장수왕 침공, 눌지왕 구원병 파견
@@ -3923,49 +4409,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ㄱ. 나제동맹 결렬(한강 이남) 
-ㄴ. 결혼동맹(동성/소지) 
-ㄷ. 장수왕 침공, 눌지왕 구원병 파견</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>ㄷㄴㄱ</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄷ. 455 - 장수왕 침공, 눌지왕 구원병 파견
-ㄴ. 493 - 결혼동맹(동성/소지)
-ㄱ. 553 - 나제동맹 결렬(한강 이남)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B142" t="inlineStr">
+      <c r="D133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>ㄱ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄴ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치 
 ㄷ. 고구려 미천왕  공격으로 대방군 소멸</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄴ. 5 - 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치
@@ -3973,24 +4439,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" t="inlineStr">
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄴ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄷ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄷ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
@@ -3998,24 +4469,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B144" t="inlineStr">
+      <c r="D135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄴ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄷ. 고구려 미천왕  공격으로 대방군 소멸</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄱ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4023,24 +4499,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B145" t="inlineStr">
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄴ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄷ. 진번이 낙랑에, 임둔이 현도에 편입</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄱ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4048,49 +4529,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
-ㄴ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
-ㄷ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>ㄴㄷㄱ</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄴ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
-ㄷ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
-ㄱ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B147" t="inlineStr">
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄴ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치 
 ㄷ. 고구려 미천왕  공격으로 낙랑군 소멸</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
 ㄷ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4098,24 +4559,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B148" t="inlineStr">
+      <c r="D138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>ㄱ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄴ. 진번이 낙랑에, 임둔이 현도에 편입 
 ㄷ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄱ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
@@ -4123,24 +4589,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B149" t="inlineStr">
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄴ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치 
 ㄷ. 남부도위, 동부도위 폐지 (옥저, 동예 성립)</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄴ. 5 - 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치
@@ -4148,24 +4619,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B150" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>ㄱ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치 
 ㄴ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄷ. 진번이 낙랑에, 임둔이 현도에 편입</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄱ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
@@ -4173,24 +4649,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B151" t="inlineStr">
+      <c r="D141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄴ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄷ. 고구려 미천왕  공격으로 대방군 소멸</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
 ㄱ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4198,24 +4679,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B152" t="inlineStr">
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>ㄱ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치 
 ㄴ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄷ. 진번이 낙랑에, 임둔이 현도에 편입</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄱ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
@@ -4223,24 +4709,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B153" t="inlineStr">
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>ㄱ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치 
 ㄴ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄷ. 진번이 낙랑에, 임둔이 현도에 편입</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄴ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
@@ -4248,24 +4739,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B154" t="inlineStr">
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>ㄱ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄴ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄷ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄱ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
@@ -4273,24 +4769,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B155" t="inlineStr">
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>ㄱ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
 ㄴ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄷ. 고구려 미천왕  공격으로 대방군 소멸</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄴ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
@@ -4298,24 +4799,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B156" t="inlineStr">
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>ㄱ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄴ. 진번이 낙랑에, 임둔이 현도에 편입 
 ㄷ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 1 - 진번이 낙랑에, 임둔이 현도에 편입
 ㄷ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
@@ -4323,24 +4829,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" t="inlineStr">
+      <c r="D147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>ㄱ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치 
 ㄴ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄷ. 고구려 미천왕  공격으로 낙랑군 소멸</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
 ㄷ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4348,24 +4859,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B158" t="inlineStr">
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>ㄱ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄴ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치 
 ㄷ. 고구려 미천왕  공격으로 대방군 소멸</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
 ㄱ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
@@ -4373,24 +4889,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B159" t="inlineStr">
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>ㄱ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치 
 ㄴ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄷ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 2 - 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치
 ㄱ. 5 - 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치
@@ -4398,24 +4919,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B160" t="inlineStr">
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>ㄱ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치 
 ㄴ. 고구려 미천왕  공격으로 낙랑군 소멸 
 ㄷ. 남부도위, 동부도위 폐지 (옥저, 동예 성립)</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 3 - 남부도위, 동부도위 폐지 (옥저, 동예 성립)
 ㄱ. 5 - 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치
@@ -4423,24 +4949,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B161" t="inlineStr">
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>ㄱ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
 ㄴ. 고구려 미천왕  공격으로 대방군 소멸 
 ㄷ. 고구려 미천왕  공격으로 낙랑군 소멸</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 4 - 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장
 ㄷ. 6 - 고구려 미천왕  공격으로 낙랑군 소멸
@@ -4448,24 +4979,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B162" t="inlineStr">
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>ㄱ. 후백제 건국 
 ㄴ. 고창 전투 
 ㄷ. 왕건의 나주 점령</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 900 - 후백제 건국
 ㄷ. 903 - 왕건의 나주 점령
@@ -4473,24 +5009,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" t="inlineStr">
+      <c r="D153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>ㄱ. 고려 건국 
 ㄴ. 후백제 건국 
 ㄷ. 발해 멸망</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 900 - 후백제 건국
 ㄱ. 918 - 고려 건국
@@ -4498,24 +5039,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B164" t="inlineStr">
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>ㄱ. 발해 멸망 
 ㄴ. 고려 건국 
 ㄷ. 후백제 건국</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 900 - 후백제 건국
 ㄴ. 918 - 고려 건국
@@ -4523,24 +5069,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B165" t="inlineStr">
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>ㄱ. 발해 멸망 
 ㄴ. 대광현 귀순 
 ㄷ. 일리천 전투</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 926 - 발해 멸망
 ㄴ. 934 - 대광현 귀순
@@ -4548,24 +5099,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B166" t="inlineStr">
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>ㄱ. 대광현 귀순 
 ㄴ. 견훤 귀순 
 ㄷ. 공산 전투</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 927 - 공산 전투
 ㄱ. 934 - 대광현 귀순
@@ -4573,24 +5129,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B167" t="inlineStr">
+      <c r="D157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>ㄱ. 왕건의 나주 점령 
 ㄴ. 고려 건국 
 ㄷ. 대광현 귀순</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 903 - 왕건의 나주 점령
 ㄴ. 918 - 고려 건국
@@ -4598,24 +5159,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" t="inlineStr">
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>ㄱ. 후고구려 건국 
 ㄴ. 왕건의 나주 점령 
 ㄷ. 고창 전투</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 901 - 후고구려 건국
 ㄴ. 903 - 왕건의 나주 점령
@@ -4623,24 +5189,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B169" t="inlineStr">
+      <c r="D159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>ㄱ. 대광현 귀순 
 ㄴ. 후고구려 건국 
 ㄷ. 발해 멸망</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 901 - 후고구려 건국
 ㄷ. 926 - 발해 멸망
@@ -4648,24 +5219,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B170" t="inlineStr">
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>ㄱ. 후고구려 건국 
 ㄴ. 견훤 귀순 
 ㄷ. 대광현 귀순</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 901 - 후고구려 건국
 ㄷ. 934 - 대광현 귀순
@@ -4673,24 +5249,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B171" t="inlineStr">
+      <c r="D161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>ㄱ. 경순왕 귀순 
 ㄴ. 왕건의 나주 점령 
 ㄷ. 고려 건국</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 903 - 왕건의 나주 점령
 ㄷ. 918 - 고려 건국
@@ -4698,24 +5279,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B172" t="inlineStr">
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>ㄱ. 공산 전투 
 ㄴ. 왕건의 나주 점령 
 ㄷ. 발해 멸망</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 903 - 왕건의 나주 점령
 ㄷ. 926 - 발해 멸망
@@ -4723,24 +5309,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B173" t="inlineStr">
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>ㄱ. 왕건의 나주 점령 
 ㄴ. 후백제 건국 
 ㄷ. 공산 전투</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 900 - 후백제 건국
 ㄱ. 903 - 왕건의 나주 점령
@@ -4748,24 +5339,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B174" t="inlineStr">
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>ㄱ. 고려 건국 
 ㄴ. 고창 전투 
 ㄷ. 왕건의 나주 점령</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 903 - 왕건의 나주 점령
 ㄱ. 918 - 고려 건국
@@ -4773,24 +5369,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B175" t="inlineStr">
+      <c r="D165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>ㄱ. 경순왕 귀순 
 ㄴ. 고창 전투 
 ㄷ. 고려 건국</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 918 - 고려 건국
 ㄴ. 930 - 고창 전투
@@ -4798,24 +5399,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B176" t="inlineStr">
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>ㄱ. 대광현 귀순 
 ㄴ. 발해 멸망 
 ㄷ. 후백제 건국</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 900 - 후백제 건국
 ㄴ. 926 - 발해 멸망
@@ -4823,24 +5429,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B177" t="inlineStr">
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>ㄱ. 발해 멸망 
 ㄴ. 고창 전투 
 ㄷ. 대광현 귀순</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 926 - 발해 멸망
 ㄴ. 930 - 고창 전투
@@ -4848,24 +5459,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B178" t="inlineStr">
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>ㄱ. 고창 전투 
 ㄴ. 일리천 전투 
 ㄷ. 발해 멸망</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 926 - 발해 멸망
 ㄱ. 930 - 고창 전투
@@ -4873,24 +5489,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B179" t="inlineStr">
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>ㄱ. 공산 전투 
 ㄴ. 왕건의 나주 점령 
 ㄷ. 고려 건국</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 903 - 왕건의 나주 점령
 ㄷ. 918 - 고려 건국
@@ -4898,24 +5519,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B180" t="inlineStr">
+      <c r="D170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>ㄱ. 일리천 전투 
 ㄴ. 경순왕 귀순 
 ㄷ. 대광현 귀순</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 934 - 대광현 귀순
 ㄴ. 935 - 경순왕 귀순
@@ -4923,24 +5549,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B181" t="inlineStr">
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>ㄱ. 왕건의 나주 점령 
 ㄴ. 고려 건국 
 ㄷ. 발해 멸망</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 903 - 왕건의 나주 점령
 ㄴ. 918 - 고려 건국
@@ -4948,24 +5579,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" t="inlineStr">
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>ㄱ. 포항 중성리 신라비 
 ㄴ. 황초령비 
 ㄷ. 남산 신성비</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 501 : 지증왕 - 포항 중성리 신라비
 ㄴ. 568 : 진흥왕 - 황초령비
@@ -4973,24 +5609,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B183" t="inlineStr">
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>ㄱ. (포항) 영일 냉수리비 
 ㄴ. 창녕비 
 ㄷ. 단양 적성비</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 503 : 지증왕 - (포항) 영일 냉수리비
 ㄷ. 551 : 진흥왕 - 단양 적성비
@@ -4998,24 +5639,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B184" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>ㄱ. 영천 청제비 
 ㄴ. 남산 신성비 
 ㄷ. 창녕비</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 536 : 법흥왕 - 영천 청제비
 ㄷ. 561 : 진흥왕 - 창녕비
@@ -5023,24 +5669,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B185" t="inlineStr">
+      <c r="D175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>ㄱ. 울진 봉평비 
 ㄴ. 창녕비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 524 : 법흥왕 - 울진 봉평비
 ㄷ. 536 : 법흥왕 - 영천 청제비
@@ -5048,24 +5699,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B186" t="inlineStr">
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>ㄱ. 단양 적성비 
 ㄴ. 북한산비 
 ㄷ. 울진 봉평비</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 524 : 법흥왕 - 울진 봉평비
 ㄱ. 551 : 진흥왕 - 단양 적성비
@@ -5073,24 +5729,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B187" t="inlineStr">
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>ㄱ. 영천 청제비 
 ㄴ. 북한산비 
 ㄷ. 울진 봉평비</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 524 : 법흥왕 - 울진 봉평비
 ㄱ. 536 : 법흥왕 - 영천 청제비
@@ -5098,24 +5759,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B188" t="inlineStr">
+      <c r="D178" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>ㄱ. 남산 신성비 
 ㄴ. 마운령비 
 ㄷ. (포항) 영일 냉수리비</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 503 : 지증왕 - (포항) 영일 냉수리비
 ㄴ. 568 : 진흥왕 - 마운령비
@@ -5123,24 +5789,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B189" t="inlineStr">
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>ㄱ. 울진 봉평비 
 ㄴ. 영천 청제비 
 ㄷ. 남산 신성비</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 524 : 법흥왕 - 울진 봉평비
 ㄴ. 536 : 법흥왕 - 영천 청제비
@@ -5148,24 +5819,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B190" t="inlineStr">
+      <c r="D180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>ㄱ. 남산 신성비 
 ㄴ. 울진 봉평비 
 ㄷ. 북한산비</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 524 : 법흥왕 - 울진 봉평비
 ㄷ. 555 : 진흥왕 - 북한산비
@@ -5173,24 +5849,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B191" t="inlineStr">
+      <c r="D181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>ㄱ. 단양 적성비 
 ㄴ. 울진 봉평비 
 ㄷ. 포항 중성리 신라비</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 501 : 지증왕 - 포항 중성리 신라비
 ㄴ. 524 : 법흥왕 - 울진 봉평비
@@ -5198,24 +5879,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B192" t="inlineStr">
+      <c r="D182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>ㄱ. 울진 봉평비 
 ㄴ. 창녕비 
 ㄷ. 북한산비</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 524 : 법흥왕 - 울진 봉평비
 ㄷ. 555 : 진흥왕 - 북한산비
@@ -5223,24 +5909,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B193" t="inlineStr">
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>ㄱ. 포항 중성리 신라비 
 ㄴ. (포항) 영일 냉수리비 
 ㄷ. 울진 봉평비</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 501 : 지증왕 - 포항 중성리 신라비
 ㄴ. 503 : 지증왕 - (포항) 영일 냉수리비
@@ -5248,24 +5939,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B194" t="inlineStr">
+      <c r="D184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>ㄱ. 남산 신성비 
 ㄴ. 단양 적성비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 536 : 법흥왕 - 영천 청제비
 ㄴ. 551 : 진흥왕 - 단양 적성비
@@ -5273,24 +5969,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B195" t="inlineStr">
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>ㄱ. 황초령비 
 ㄴ. 단양 적성비 
 ㄷ. 북한산비</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 551 : 진흥왕 - 단양 적성비
 ㄷ. 555 : 진흥왕 - 북한산비
@@ -5298,24 +5999,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B196" t="inlineStr">
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>ㄱ. 포항 중성리 신라비 
 ㄴ. 창녕비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 501 : 지증왕 - 포항 중성리 신라비
 ㄷ. 536 : 법흥왕 - 영천 청제비
@@ -5323,24 +6029,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B197" t="inlineStr">
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>ㄱ. 울진 봉평비 
 ㄴ. 단양 적성비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 524 : 법흥왕 - 울진 봉평비
 ㄷ. 536 : 법흥왕 - 영천 청제비
@@ -5348,24 +6059,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B198" t="inlineStr">
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>ㄱ. 포항 중성리 신라비 
 ㄴ. 단양 적성비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 501 : 지증왕 - 포항 중성리 신라비
 ㄷ. 536 : 법흥왕 - 영천 청제비
@@ -5373,24 +6089,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B199" t="inlineStr">
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>ㄱ. 울진 봉평비 
 ㄴ. 포항 중성리 신라비 
 ㄷ. 창녕비</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 501 : 지증왕 - 포항 중성리 신라비
 ㄱ. 524 : 법흥왕 - 울진 봉평비
@@ -5398,24 +6119,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B200" t="inlineStr">
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>ㄱ. 창녕비 
 ㄴ. 포항 중성리 신라비 
 ㄷ. 남산 신성비</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 501 : 지증왕 - 포항 중성리 신라비
 ㄱ. 561 : 진흥왕 - 창녕비
@@ -5423,24 +6149,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B201" t="inlineStr">
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>ㄱ. 북한산비 
 ㄴ. 남산 신성비 
 ㄷ. 영천 청제비</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 536 : 법흥왕 - 영천 청제비
 ㄱ. 555 : 진흥왕 - 북한산비
@@ -5448,24 +6179,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B202" t="inlineStr">
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>ㄱ. 숙신(말갈) 복속 
 ㄴ. 비려(거란) 복속 
 ㄷ. 왜군 격파, 신라 속국</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 395 - 비려(거란) 복속
 ㄱ. 398 - 숙신(말갈) 복속
@@ -5473,24 +6209,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B203" t="inlineStr">
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>ㄱ. 후연 격파, 요동 장악 
 ㄴ. 동부여 복속, 동예 흡수 
 ㄷ. 임진강 등 한강 이북 장악</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 404 - 임진강 등 한강 이북 장악
 ㄱ. 407 - 후연 격파, 요동 장악
@@ -5498,24 +6239,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B204" t="inlineStr">
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 왜군 격파, 신라 속국 
 ㄷ. 후연 격파, 요동 장악</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄴ. 400 - 왜군 격파, 신라 속국
@@ -5523,24 +6269,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B205" t="inlineStr">
+      <c r="D195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>ㄱ. 후연 격파, 요동 장악 
 ㄴ. 숙신(말갈) 복속 
 ㄷ. 동부여 복속, 동예 흡수</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>ㄴㄱㄷ</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 398 - 숙신(말갈) 복속
 ㄱ. 407 - 후연 격파, 요동 장악
@@ -5548,24 +6299,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B206" t="inlineStr">
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>ㄱ. 동부여 복속, 동예 흡수 
 ㄴ. 아신왕 격파, 백제 속국 
 ㄷ. 왜군 격파, 신라 속국</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 396 - 아신왕 격파, 백제 속국
 ㄷ. 400 - 왜군 격파, 신라 속국
@@ -5573,49 +6329,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ㄱ. 비려(거란) 복속 
-ㄴ. 왜군 격파, 신라 속국 
-ㄷ. 후연 격파, 요동 장악</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
-ㄴ. 400 - 왜군 격파, 신라 속국
-ㄷ. 407 - 후연 격파, 요동 장악
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B208" t="inlineStr">
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 왜군 격파, 신라 속국 
 ㄷ. 숙신(말갈) 복속</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄷ. 398 - 숙신(말갈) 복속
@@ -5623,24 +6359,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B209" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>ㄱ. 임진강 등 한강 이북 장악 
 ㄴ. 비려(거란) 복속 
 ㄷ. 왜군 격파, 신라 속국</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>ㄴㄷㄱ</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄴ. 395 - 비려(거란) 복속
 ㄷ. 400 - 왜군 격파, 신라 속국
@@ -5648,24 +6389,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B210" t="inlineStr">
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>ㄱ. 동부여 복속, 동예 흡수 
 ㄴ. 왜군 격파, 신라 속국 
 ㄷ. 비려(거란) 복속</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 395 - 비려(거란) 복속
 ㄴ. 400 - 왜군 격파, 신라 속국
@@ -5673,24 +6419,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B211" t="inlineStr">
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>ㄱ. 숙신(말갈) 복속 
 ㄴ. 후연 격파, 요동 장악 
 ㄷ. 비려(거란) 복속</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 395 - 비려(거란) 복속
 ㄱ. 398 - 숙신(말갈) 복속
@@ -5698,24 +6449,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B212" t="inlineStr">
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>ㄱ. 숙신(말갈) 복속 
 ㄴ. 후연 격파, 요동 장악 
 ㄷ. 아신왕 격파, 백제 속국</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 396 - 아신왕 격파, 백제 속국
 ㄱ. 398 - 숙신(말갈) 복속
@@ -5723,24 +6479,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B213" t="inlineStr">
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 임진강 등 한강 이북 장악 
 ㄷ. 후연 격파, 요동 장악</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄴ. 404 - 임진강 등 한강 이북 장악
@@ -5748,24 +6509,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B214" t="inlineStr">
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>ㄱ. 동부여 복속, 동예 흡수 
 ㄴ. 숙신(말갈) 복속 
 ㄷ. 비려(거란) 복속</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>ㄷㄴㄱ</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 395 - 비려(거란) 복속
 ㄴ. 398 - 숙신(말갈) 복속
@@ -5773,24 +6539,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" t="inlineStr">
+      <c r="D204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>ㄱ. 아신왕 격파, 백제 속국 
 ㄴ. 숙신(말갈) 복속 
 ㄷ. 동부여 복속, 동예 흡수</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 396 - 아신왕 격파, 백제 속국
 ㄴ. 398 - 숙신(말갈) 복속
@@ -5798,23 +6569,28 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B216" t="inlineStr">
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>ㄱ. 왜군 격파, 신라 속국 
 ㄴ. 임</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 400 - 왜군 격파, 신라 속국
 ㄴ. 404 - 임진강 등 한강 이북 장악
@@ -5822,24 +6598,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B217" t="inlineStr">
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 숙신(말갈) 복속 
 ㄷ. 동부여 복속, 동예 흡수</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄴ. 398 - 숙신(말갈) 복속
@@ -5847,24 +6628,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B218" t="inlineStr">
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 아신왕 격파, 백제 속국 
 ㄷ. 숙신(말갈) 복속</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄴ. 396 - 아신왕 격파, 백제 속국
@@ -5872,24 +6658,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B219" t="inlineStr">
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>ㄱ. 비려(거란) 복속 
 ㄴ. 아신왕 격파, 백제 속국 
 ㄷ. 임진강 등 한강 이북 장악</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>ㄱㄴㄷ</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 395 - 비려(거란) 복속
 ㄴ. 396 - 아신왕 격파, 백제 속국
@@ -5897,24 +6688,29 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B220" t="inlineStr">
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>ㄱ. 아신왕 격파, 백제 속국 
 ㄴ. 임진강 등 한강 이북 장악 
 ㄷ. 왜군 격파, 신라 속국</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄱ. 396 - 아신왕 격파, 백제 속국
 ㄷ. 400 - 왜군 격파, 신라 속국
@@ -5922,29 +6718,42 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B221" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>ㄱ. 후연 격파, 요동 장악 
 ㄴ. 동부여 복속, 동예 흡수 
 ㄷ. 아신왕 격파, 백제 속국</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>ㄷㄱㄴ</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">ㄷ. 396 - 아신왕 격파, 백제 속국
 ㄱ. 407 - 후연 격파, 요동 장악
 ㄴ. 410 - 동부여 복속, 동예 흡수
 </t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>기본</t>
         </is>
       </c>
     </row>
